--- a/content/database_content.xlsx
+++ b/content/database_content.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincey/Dropbox/QMUL/ECS507/int-elligence/content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincey/Documents/repos/int-elligence/content/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="440" windowWidth="27960" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="189">
   <si>
     <t>Language</t>
   </si>
@@ -359,6 +359,246 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Barrett</t>
+  </si>
+  <si>
+    <t>NoahBarrett@fleckens.hu</t>
+  </si>
+  <si>
+    <t>Vohgh9aegu</t>
+  </si>
+  <si>
+    <t>Hinderikus</t>
+  </si>
+  <si>
+    <t>van Gaans</t>
+  </si>
+  <si>
+    <t>HinderikusvanGaans@einrot.com</t>
+  </si>
+  <si>
+    <t>ohSa5naRau</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>de Putter</t>
+  </si>
+  <si>
+    <t>KiliandePutter@dayrep.com</t>
+  </si>
+  <si>
+    <t>air2Aesie</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Poulsen</t>
+  </si>
+  <si>
+    <t>HannahMPoulsen@jourrapide.com</t>
+  </si>
+  <si>
+    <t>iexaht5I</t>
+  </si>
+  <si>
+    <t>Atakan</t>
+  </si>
+  <si>
+    <t>Looijenga</t>
+  </si>
+  <si>
+    <t>AtakanLooijenga@superrito.com</t>
+  </si>
+  <si>
+    <t>ThiedahNei2sh</t>
+  </si>
+  <si>
+    <t>Imogen</t>
+  </si>
+  <si>
+    <t>Lindesay</t>
+  </si>
+  <si>
+    <t>ImogenLindesay@jourrapide.com</t>
+  </si>
+  <si>
+    <t>Kix9Eegeiyai</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>AdamCKoch@teleworm.us</t>
+  </si>
+  <si>
+    <t>aegeeZ4oh</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>RobertPeters@gustr.com</t>
+  </si>
+  <si>
+    <t>uf6BahThou5</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>AmeliaKhan@cuvox.de</t>
+  </si>
+  <si>
+    <t>ai4Thu5ciep</t>
+  </si>
+  <si>
+    <t>Lasse</t>
+  </si>
+  <si>
+    <t>Lund</t>
+  </si>
+  <si>
+    <t>LasseSLund@rhyta.com</t>
+  </si>
+  <si>
+    <t>oiK8lewosh</t>
+  </si>
+  <si>
+    <t>Zac</t>
+  </si>
+  <si>
+    <t>McLaughlin</t>
+  </si>
+  <si>
+    <t>ZacMcLaughlin@rhyta.com</t>
+  </si>
+  <si>
+    <t>apu3airuTu</t>
+  </si>
+  <si>
+    <t>Gabrielle</t>
+  </si>
+  <si>
+    <t>Uhr</t>
+  </si>
+  <si>
+    <t>GabrielleUhr@dayrep.com</t>
+  </si>
+  <si>
+    <t>sie5re6deB</t>
+  </si>
+  <si>
+    <t>Ira</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>IraMCooper@teleworm.us</t>
+  </si>
+  <si>
+    <t>ahxu2Thuaw</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>SeanBenjamin@gustr.com</t>
+  </si>
+  <si>
+    <t>aV3eeg1aich</t>
+  </si>
+  <si>
+    <t>Tilde</t>
+  </si>
+  <si>
+    <t>Ravn</t>
+  </si>
+  <si>
+    <t>TildeKRavn@teleworm.us</t>
+  </si>
+  <si>
+    <t>ropahj9OXai</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>JoelCarpenter@einrot.com</t>
+  </si>
+  <si>
+    <t>sohla3aiW</t>
+  </si>
+  <si>
+    <t>18/7/1997</t>
+  </si>
+  <si>
+    <t>13/6/1990</t>
+  </si>
+  <si>
+    <t>5/11/1990</t>
+  </si>
+  <si>
+    <t>29/11/1997</t>
+  </si>
+  <si>
+    <t>16/8/1997</t>
+  </si>
+  <si>
+    <t>1/2/1998</t>
+  </si>
+  <si>
+    <t>8/11/1992</t>
+  </si>
+  <si>
+    <t>2/12/2000</t>
+  </si>
+  <si>
+    <t>15/9/1997</t>
+  </si>
+  <si>
+    <t>28/5/1997</t>
+  </si>
+  <si>
+    <t>14/4/1995</t>
+  </si>
+  <si>
+    <t>25/10/1996</t>
+  </si>
+  <si>
+    <t>21/11/1995</t>
+  </si>
+  <si>
+    <t>2/3/2000</t>
+  </si>
+  <si>
+    <t>14/10/1992</t>
+  </si>
+  <si>
+    <t>17/5/1994</t>
   </si>
 </sst>
 </file>
@@ -435,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,6 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -967,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,7 +1220,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -1002,7 +1243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1025,7 +1266,7 @@
         <v>32956</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1048,7 +1289,7 @@
         <v>35058</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1071,7 +1312,7 @@
         <v>35457</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1081,6 +1322,9 @@
       <c r="C5" t="s">
         <v>104</v>
       </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
       <c r="E5" t="s">
         <v>105</v>
       </c>
@@ -1091,86 +1335,395 @@
         <v>35468</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>85</v>
       </c>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
